--- a/storage/app/products.xlsx
+++ b/storage/app/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Code/ShoppingApp/storage/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cankert/Entwicklung/ShoppingApp/storage/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF8251-6FCC-3A4E-9065-7F9958CA7098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E839726-4E1D-5247-8FCF-03AF556E5353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{97BA065C-7474-874D-BD84-31049E61B5AD}"/>
+    <workbookView xWindow="10780" yWindow="5100" windowWidth="31580" windowHeight="17920" xr2:uid="{97BA065C-7474-874D-BD84-31049E61B5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Apfel</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Brötchen</t>
   </si>
   <si>
-    <t>Bäcker</t>
-  </si>
-  <si>
     <t>Schoko Croissaint</t>
   </si>
   <si>
@@ -430,6 +427,12 @@
   </si>
   <si>
     <t>Saft</t>
+  </si>
+  <si>
+    <t>Frühstück</t>
+  </si>
+  <si>
+    <t>Abendessen</t>
   </si>
 </sst>
 </file>
@@ -781,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC62CE5-4575-384F-A7D2-E00E5C3D3DA6}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1184,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,7 +1192,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1200,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1237,7 +1240,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1333,7 +1336,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1365,7 +1368,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1381,7 +1384,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1469,7 +1472,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1541,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -1546,10 +1549,10 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,10 +1597,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1621,7 +1624,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1653,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1733,7 +1736,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1797,7 +1800,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1845,7 +1848,15 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/products.xlsx
+++ b/storage/app/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cankert/Entwicklung/ShoppingApp/storage/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E839726-4E1D-5247-8FCF-03AF556E5353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC11CD1A-9F84-A44B-A3EA-C6538D5244E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="5100" windowWidth="31580" windowHeight="17920" xr2:uid="{97BA065C-7474-874D-BD84-31049E61B5AD}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC62CE5-4575-384F-A7D2-E00E5C3D3DA6}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B116" sqref="B108:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1656,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1672,7 +1672,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1696,7 +1696,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,7 +1752,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1768,7 +1768,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1776,7 +1776,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1784,7 +1784,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
